--- a/biology/Microbiologie/Milieu_urée_tryptophane/Milieu_urée_tryptophane.xlsx
+++ b/biology/Microbiologie/Milieu_urée_tryptophane/Milieu_urée_tryptophane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu Urée-tryptophane, improprement appelé urée-indole est un milieu de culture synthétique utilisé en bactériologie permettant la mise en évidence simultanée :
 De la production d'indole (par l'hydrolyse du tryptophane par la tryptophanase) ;
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">- L-tryptophane ...............................  3 g
 - Urée ........................................ 20 g
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À stériliser par filtration (utiliser de l'eau stérile pour limiter la contamination initiale).
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A uréase -
 B uréase +
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Production d'indole</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction d'hydrolyse du tryptophane, catalysée par la tryptophanase, produit de l'indole, de l'acide pyruvique et de l'ammoniac selon l'équation suivante :
 L'indole produit est mis en évidence par le réactif de Kovacs ou le réactif de James. Le diméthylamino-4-benzaldéhyde du réactif de Kovacs réagit avec l'indole avec formation d'un composé rouge.
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Hydrolyse de l'urée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est catalysée par l'uréase, il y a production de dioxyde de carbone et d'ammoniac. Ce dernier alcalinise le milieu. Cette alcalinisation du milieu est mise en évidence par le virage du rouge de phénol au rose.
           H
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Milieu_ur%C3%A9e_tryptophane</t>
+          <t>Milieu_urée_tryptophane</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,7 +732,9 @@
           <t>Désaminasation du tryptophane</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Consulter l'article à propos de la tryptophane désaminase.
 L'acide indole-pyruvique est mis en évidence par sa complexation en un composé marron foncé en présence d'ions fer III (ferriques, 
